--- a/database_source/original/banks.xlsx
+++ b/database_source/original/banks.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="227">
   <si>
     <t>_id</t>
   </si>
@@ -31,664 +31,670 @@
     <t>bank_name</t>
   </si>
   <si>
+    <t>bank_name_ua</t>
+  </si>
+  <si>
+    <t>bank_name_en</t>
+  </si>
+  <si>
     <t>sberbank_rossii_logo</t>
   </si>
   <si>
     <t>Сбербанк России</t>
   </si>
   <si>
+    <t>Сбербанк Росії</t>
+  </si>
+  <si>
+    <t>Sberbank of Russia</t>
+  </si>
+  <si>
     <t>praveks_bank_logo</t>
   </si>
   <si>
     <t>Правекс-Банк</t>
   </si>
   <si>
+    <t>Правекс - Банк</t>
+  </si>
+  <si>
+    <t>Praveks Bank</t>
+  </si>
+  <si>
     <t>delta_logo</t>
   </si>
   <si>
     <t>Дельта</t>
   </si>
   <si>
+    <t>Delta</t>
+  </si>
+  <si>
     <t>bm_bank_logo</t>
   </si>
   <si>
     <t>БМ Банк</t>
   </si>
   <si>
+    <t>BM Bank</t>
+  </si>
+  <si>
     <t>vieibi_bank_logo</t>
   </si>
   <si>
     <t>ВиЭйБи Банк</t>
   </si>
   <si>
+    <t>ВіЕйБі Банк</t>
+  </si>
+  <si>
+    <t>VAB Bank</t>
+  </si>
+  <si>
     <t>fido_bank_logo</t>
   </si>
   <si>
     <t>ФИДОБАНК</t>
   </si>
   <si>
+    <t>ФІДОБАНК</t>
+  </si>
+  <si>
+    <t>FIDOBANK</t>
+  </si>
+  <si>
     <t>ukrin_bank_logo</t>
   </si>
   <si>
     <t>Укринбанк</t>
   </si>
   <si>
+    <t>Укрінбанк</t>
+  </si>
+  <si>
+    <t>Ukrinbank</t>
+  </si>
+  <si>
     <t>kredi_agrikol_logo</t>
   </si>
   <si>
     <t>Креди Агриколь</t>
   </si>
   <si>
+    <t>Креді Агріколь</t>
+  </si>
+  <si>
+    <t>Credit Agricole</t>
+  </si>
+  <si>
     <t>otp_bank_logo</t>
   </si>
   <si>
     <t>ОТП Банк</t>
   </si>
   <si>
+    <t>OTP Bank</t>
+  </si>
+  <si>
     <t>platinum_logo</t>
   </si>
   <si>
     <t>Платинум</t>
   </si>
   <si>
+    <t>Platinum</t>
+  </si>
+  <si>
     <t>pireus_logo</t>
   </si>
   <si>
     <t>Пиреус</t>
   </si>
   <si>
+    <t>Піреус</t>
+  </si>
+  <si>
+    <t>Piraeus</t>
+  </si>
+  <si>
     <t>ukrgazprom_bank_logo</t>
   </si>
   <si>
     <t>Укргазпромбанк</t>
   </si>
   <si>
+    <t>Ukrgazprombank</t>
+  </si>
+  <si>
     <t>vies_bank_logo</t>
   </si>
   <si>
     <t>ВиЭс Банк</t>
   </si>
   <si>
+    <t>ВіЕс Банк</t>
+  </si>
+  <si>
+    <t>ViEs Bank</t>
+  </si>
+  <si>
     <t>alfa_bank_logo</t>
   </si>
   <si>
     <t>Альфа Банк</t>
   </si>
   <si>
+    <t>Alfa Bank</t>
+  </si>
+  <si>
     <t>pivdennui_logo</t>
   </si>
   <si>
     <t>Пивденный</t>
   </si>
   <si>
+    <t>Південний</t>
+  </si>
+  <si>
+    <t>Pivdenniy</t>
+  </si>
+  <si>
     <t>bank_investicii_zberegenii_logo</t>
   </si>
   <si>
     <t>Банк инвестиций и сбережений</t>
   </si>
   <si>
+    <t>Банк інвестицій і заощаджень</t>
+  </si>
+  <si>
+    <t>Bank for Investment and savings</t>
+  </si>
+  <si>
     <t>diamant_logo</t>
   </si>
   <si>
     <t>Диамант</t>
   </si>
   <si>
+    <t>Діамант</t>
+  </si>
+  <si>
+    <t>Diamant</t>
+  </si>
+  <si>
     <t>bta_bank_logo</t>
   </si>
   <si>
     <t>БТА Банк</t>
   </si>
   <si>
+    <t>BTA Bank</t>
+  </si>
+  <si>
     <t>aktiv_bank_logo</t>
   </si>
   <si>
     <t>Актив Банк</t>
   </si>
   <si>
+    <t>актив Банк</t>
+  </si>
+  <si>
+    <t>Active Bank</t>
+  </si>
+  <si>
     <t>ideya_bank_logo</t>
   </si>
   <si>
     <t>Идея Банк</t>
   </si>
   <si>
+    <t>ідея Банк</t>
+  </si>
+  <si>
+    <t>idea Bank</t>
+  </si>
+  <si>
     <t>bank_pervui_logo</t>
   </si>
   <si>
     <t>Банк Первый</t>
   </si>
   <si>
+    <t>банк Перший</t>
+  </si>
+  <si>
+    <t>Bank First</t>
+  </si>
+  <si>
     <t>akb_bank_logo</t>
   </si>
   <si>
     <t>АКБ Банк</t>
   </si>
   <si>
+    <t>ACB Bank</t>
+  </si>
+  <si>
     <t>bank_kambio_logo</t>
   </si>
   <si>
     <t>Банк Камбио</t>
   </si>
   <si>
+    <t>банк Камбіо</t>
+  </si>
+  <si>
+    <t>Bank Cambio</t>
+  </si>
+  <si>
     <t>mihailovskii_logo</t>
   </si>
   <si>
     <t>Михайловский</t>
   </si>
   <si>
+    <t>Михайлівський</t>
+  </si>
+  <si>
+    <t>Mikhailovsky</t>
+  </si>
+  <si>
     <t>kiev_logo</t>
   </si>
   <si>
     <t>Киев</t>
   </si>
   <si>
+    <t>Київ</t>
+  </si>
+  <si>
+    <t>Kiev</t>
+  </si>
+  <si>
     <t>zolotue_vorota_logo</t>
   </si>
   <si>
     <t>Золотые Ворота</t>
   </si>
   <si>
+    <t>Золоті Ворота</t>
+  </si>
+  <si>
+    <t>Golden Gate</t>
+  </si>
+  <si>
     <t>kreditprom_bank_logo</t>
   </si>
   <si>
     <t>Кредитпромбанк</t>
   </si>
   <si>
+    <t>Creditprombank</t>
+  </si>
+  <si>
     <t>legbank_logo</t>
   </si>
   <si>
     <t>Легбанк</t>
   </si>
   <si>
+    <t>Legbank</t>
+  </si>
+  <si>
     <t>avant_logo</t>
   </si>
   <si>
     <t>Авант</t>
   </si>
   <si>
+    <t>Avant</t>
+  </si>
+  <si>
     <t>ukrainskii_kapital_logo</t>
   </si>
   <si>
     <t>Украинский капитал</t>
   </si>
   <si>
+    <t>Український капітал</t>
+  </si>
+  <si>
+    <t>Ukrainian capital</t>
+  </si>
+  <si>
     <t>nacionalnue_investicii_logo</t>
   </si>
   <si>
     <t>Национальные инвестиции</t>
   </si>
   <si>
+    <t>Національні інвестиції</t>
+  </si>
+  <si>
+    <t>national Investments</t>
+  </si>
+  <si>
     <t>sich_logo</t>
   </si>
   <si>
     <t>Сич</t>
   </si>
   <si>
+    <t>Січ</t>
+  </si>
+  <si>
+    <t>Sich</t>
+  </si>
+  <si>
     <t>alpari_logo</t>
   </si>
   <si>
     <t>Альпари</t>
   </si>
   <si>
+    <t>Альпарі</t>
+  </si>
+  <si>
+    <t>Alpari</t>
+  </si>
+  <si>
     <t>boguslav_logo</t>
   </si>
   <si>
     <t>Богуслав</t>
   </si>
   <si>
+    <t>Boguslaw</t>
+  </si>
+  <si>
     <t>veles_logo</t>
   </si>
   <si>
     <t>Велес</t>
   </si>
   <si>
+    <t>Velez</t>
+  </si>
+  <si>
     <t>vernum_bank_logo</t>
   </si>
   <si>
     <t>Вернум Банк</t>
   </si>
   <si>
+    <t>Vernum Bank</t>
+  </si>
+  <si>
     <t>globus_logo</t>
   </si>
   <si>
     <t>Глобус</t>
   </si>
   <si>
+    <t>Globe</t>
+  </si>
+  <si>
     <t>evrogaz_bank_logo</t>
   </si>
   <si>
     <t>Еврогазбанк</t>
   </si>
   <si>
+    <t>Єврогазбанк</t>
+  </si>
+  <si>
+    <t>Eurogasbank</t>
+  </si>
+  <si>
     <t>invest_bank_logo</t>
   </si>
   <si>
     <t>Инвестбанк</t>
   </si>
   <si>
+    <t>Інвестбанк</t>
+  </si>
+  <si>
+    <t>Investment</t>
+  </si>
+  <si>
     <t>integral_logo</t>
   </si>
   <si>
     <t>Интеграл</t>
   </si>
   <si>
+    <t>інтеграл</t>
+  </si>
+  <si>
+    <t>integral</t>
+  </si>
+  <si>
     <t>kievskaya_rus_logo</t>
   </si>
   <si>
     <t>Киевская Русь</t>
   </si>
   <si>
+    <t>Київська Русь</t>
+  </si>
+  <si>
+    <t>Kievan Rus</t>
+  </si>
+  <si>
     <t>komercheskii_industrialnui_bank_logo</t>
   </si>
   <si>
     <t>Коммерческий Индустриальный Банк</t>
   </si>
   <si>
+    <t>Комерційний Індустріальний Банк</t>
+  </si>
+  <si>
+    <t>Commercial Industrial Bank</t>
+  </si>
+  <si>
     <t>kom_invest_bank_logo</t>
   </si>
   <si>
     <t>КомИнвестБанк</t>
   </si>
   <si>
+    <t>КомІнвестБанк</t>
+  </si>
+  <si>
+    <t>KomInvestBank</t>
+  </si>
+  <si>
     <t>kontrakt_logo</t>
   </si>
   <si>
     <t>Контракт</t>
   </si>
   <si>
+    <t>контракт</t>
+  </si>
+  <si>
+    <t>contract</t>
+  </si>
+  <si>
     <t>commerce_city_bank_logo</t>
   </si>
   <si>
     <t>Городской Коммерческий Банк</t>
   </si>
   <si>
+    <t>Міський Комерційний Банк</t>
+  </si>
+  <si>
+    <t>City Commercial Bank</t>
+  </si>
+  <si>
     <t>narodnui_kapital_logo</t>
   </si>
   <si>
     <t>Народный Капитал</t>
   </si>
   <si>
+    <t>народний Капітал</t>
+  </si>
+  <si>
+    <t>People's Capital</t>
+  </si>
+  <si>
     <t>nacionalnui_kredit_logo</t>
   </si>
   <si>
     <t>Национальный Кредит</t>
   </si>
   <si>
+    <t>Національний Кредит</t>
+  </si>
+  <si>
+    <t>National Credit</t>
+  </si>
+  <si>
     <t>oksi_bank_logo</t>
   </si>
   <si>
     <t>ОКСИ БАНК</t>
   </si>
   <si>
+    <t>ОКСІ БАНК</t>
+  </si>
+  <si>
+    <t>OXY BANK</t>
+  </si>
+  <si>
     <t>poltava_bank_logo</t>
   </si>
   <si>
     <t>Полтава-Банк</t>
   </si>
   <si>
+    <t>Полтава - Банк</t>
+  </si>
+  <si>
+    <t>Poltava-Bank</t>
+  </si>
+  <si>
     <t>radikal_logo</t>
   </si>
   <si>
     <t>Радикал</t>
   </si>
   <si>
+    <t>радикал</t>
+  </si>
+  <si>
+    <t>radical</t>
+  </si>
+  <si>
     <t>region_bank_logo</t>
   </si>
   <si>
     <t>Регион-банк</t>
   </si>
   <si>
+    <t>Регіон- банк</t>
+  </si>
+  <si>
+    <t>Region Bank</t>
+  </si>
+  <si>
     <t>runochnue_tehnologii_logo</t>
   </si>
   <si>
     <t>Рыночные Технологии</t>
   </si>
   <si>
+    <t>ринкові Технології</t>
+  </si>
+  <si>
+    <t>market Technologies</t>
+  </si>
+  <si>
     <t>sp_bank_logo</t>
   </si>
   <si>
     <t>СП Банк</t>
   </si>
   <si>
+    <t>JV Bank</t>
+  </si>
+  <si>
     <t>trast_kapital_logo</t>
   </si>
   <si>
     <t>Траст-Капитал</t>
   </si>
   <si>
+    <t>Траст - Капітал</t>
+  </si>
+  <si>
+    <t>Trust-Capital</t>
+  </si>
+  <si>
     <t>ukrainskii_professionalbui_bank_logo</t>
   </si>
   <si>
     <t>Украинский Профессиональный Банк</t>
   </si>
   <si>
+    <t>Український Професійний Банк</t>
+  </si>
+  <si>
+    <t>Ukrainian Professional Bank</t>
+  </si>
+  <si>
     <t>ukr_gaz_bank_logo</t>
   </si>
   <si>
     <t>Укргазбанк</t>
   </si>
   <si>
+    <t>UGB</t>
+  </si>
+  <si>
     <t>ukr_komyn_bank_logo</t>
   </si>
   <si>
     <t>Укркомунбанк</t>
   </si>
   <si>
+    <t>Ukrkomunbank</t>
+  </si>
+  <si>
     <t>ukr_plat_logo</t>
   </si>
   <si>
     <t>Укрплат</t>
   </si>
   <si>
+    <t>УКРПЛАТ</t>
+  </si>
+  <si>
+    <t>Ukrplat</t>
+  </si>
+  <si>
     <t>finansovui_partner_logo</t>
   </si>
   <si>
     <t>Финансовый Партнер</t>
   </si>
   <si>
+    <t>Фінансовий Партнер</t>
+  </si>
+  <si>
+    <t>financial Partner</t>
+  </si>
+  <si>
     <t>yneks_logo</t>
   </si>
   <si>
     <t>Юнекс</t>
-  </si>
-  <si>
-    <t>Сбербанк Росії</t>
-  </si>
-  <si>
-    <t>Sberbank of Russia</t>
-  </si>
-  <si>
-    <t>Правекс - Банк</t>
-  </si>
-  <si>
-    <t>Praveks Bank</t>
-  </si>
-  <si>
-    <t>Delta</t>
-  </si>
-  <si>
-    <t>BM Bank</t>
-  </si>
-  <si>
-    <t>ВіЕйБі Банк</t>
-  </si>
-  <si>
-    <t>VAB Bank</t>
-  </si>
-  <si>
-    <t>ФІДОБАНК</t>
-  </si>
-  <si>
-    <t>FIDOBANK</t>
-  </si>
-  <si>
-    <t>Укрінбанк</t>
-  </si>
-  <si>
-    <t>Ukrinbank</t>
-  </si>
-  <si>
-    <t>Креді Агріколь</t>
-  </si>
-  <si>
-    <t>Credit Agricole</t>
-  </si>
-  <si>
-    <t>OTP Bank</t>
-  </si>
-  <si>
-    <t>Platinum</t>
-  </si>
-  <si>
-    <t>Піреус</t>
-  </si>
-  <si>
-    <t>Piraeus</t>
-  </si>
-  <si>
-    <t>Ukrgazprombank</t>
-  </si>
-  <si>
-    <t>ВіЕс Банк</t>
-  </si>
-  <si>
-    <t>ViEs Bank</t>
-  </si>
-  <si>
-    <t>Alfa Bank</t>
-  </si>
-  <si>
-    <t>Південний</t>
-  </si>
-  <si>
-    <t>Pivdenniy</t>
-  </si>
-  <si>
-    <t>Банк інвестицій і заощаджень</t>
-  </si>
-  <si>
-    <t>Bank for Investment and savings</t>
-  </si>
-  <si>
-    <t>Діамант</t>
-  </si>
-  <si>
-    <t>Diamant</t>
-  </si>
-  <si>
-    <t>BTA Bank</t>
-  </si>
-  <si>
-    <t>актив Банк</t>
-  </si>
-  <si>
-    <t>Active Bank</t>
-  </si>
-  <si>
-    <t>ідея Банк</t>
-  </si>
-  <si>
-    <t>idea Bank</t>
-  </si>
-  <si>
-    <t>банк Перший</t>
-  </si>
-  <si>
-    <t>Bank First</t>
-  </si>
-  <si>
-    <t>ACB Bank</t>
-  </si>
-  <si>
-    <t>банк Камбіо</t>
-  </si>
-  <si>
-    <t>Bank Cambio</t>
-  </si>
-  <si>
-    <t>Михайлівський</t>
-  </si>
-  <si>
-    <t>Mikhailovsky</t>
-  </si>
-  <si>
-    <t>Київ</t>
-  </si>
-  <si>
-    <t>Kiev</t>
-  </si>
-  <si>
-    <t>Золоті Ворота</t>
-  </si>
-  <si>
-    <t>Golden Gate</t>
-  </si>
-  <si>
-    <t>Creditprombank</t>
-  </si>
-  <si>
-    <t>Legbank</t>
-  </si>
-  <si>
-    <t>Avant</t>
-  </si>
-  <si>
-    <t>Український капітал</t>
-  </si>
-  <si>
-    <t>Ukrainian capital</t>
-  </si>
-  <si>
-    <t>Національні інвестиції</t>
-  </si>
-  <si>
-    <t>national Investments</t>
-  </si>
-  <si>
-    <t>Січ</t>
-  </si>
-  <si>
-    <t>Sich</t>
-  </si>
-  <si>
-    <t>Альпарі</t>
-  </si>
-  <si>
-    <t>Alpari</t>
-  </si>
-  <si>
-    <t>Boguslaw</t>
-  </si>
-  <si>
-    <t>Velez</t>
-  </si>
-  <si>
-    <t>Vernum Bank</t>
-  </si>
-  <si>
-    <t>Globe</t>
-  </si>
-  <si>
-    <t>Єврогазбанк</t>
-  </si>
-  <si>
-    <t>Eurogasbank</t>
-  </si>
-  <si>
-    <t>Інвестбанк</t>
-  </si>
-  <si>
-    <t>Investment</t>
-  </si>
-  <si>
-    <t>інтеграл</t>
-  </si>
-  <si>
-    <t>integral</t>
-  </si>
-  <si>
-    <t>Київська Русь</t>
-  </si>
-  <si>
-    <t>Kievan Rus</t>
-  </si>
-  <si>
-    <t>Комерційний Індустріальний Банк</t>
-  </si>
-  <si>
-    <t>Commercial Industrial Bank</t>
-  </si>
-  <si>
-    <t>КомІнвестБанк</t>
-  </si>
-  <si>
-    <t>KomInvestBank</t>
-  </si>
-  <si>
-    <t>контракт</t>
-  </si>
-  <si>
-    <t>contract</t>
-  </si>
-  <si>
-    <t>Міський Комерційний Банк</t>
-  </si>
-  <si>
-    <t>City Commercial Bank</t>
-  </si>
-  <si>
-    <t>народний Капітал</t>
-  </si>
-  <si>
-    <t>People's Capital</t>
-  </si>
-  <si>
-    <t>Національний Кредит</t>
-  </si>
-  <si>
-    <t>National Credit</t>
-  </si>
-  <si>
-    <t>ОКСІ БАНК</t>
-  </si>
-  <si>
-    <t>OXY BANK</t>
-  </si>
-  <si>
-    <t>Полтава - Банк</t>
-  </si>
-  <si>
-    <t>Poltava-Bank</t>
-  </si>
-  <si>
-    <t>радикал</t>
-  </si>
-  <si>
-    <t>radical</t>
-  </si>
-  <si>
-    <t>Регіон- банк</t>
-  </si>
-  <si>
-    <t>Region Bank</t>
-  </si>
-  <si>
-    <t>ринкові Технології</t>
-  </si>
-  <si>
-    <t>market Technologies</t>
-  </si>
-  <si>
-    <t>JV Bank</t>
-  </si>
-  <si>
-    <t>Траст - Капітал</t>
-  </si>
-  <si>
-    <t>Trust-Capital</t>
-  </si>
-  <si>
-    <t>Український Професійний Банк</t>
-  </si>
-  <si>
-    <t>Ukrainian Professional Bank</t>
-  </si>
-  <si>
-    <t>UGB</t>
-  </si>
-  <si>
-    <t>Ukrkomunbank</t>
-  </si>
-  <si>
-    <t>УКРПЛАТ</t>
-  </si>
-  <si>
-    <t>Ukrplat</t>
-  </si>
-  <si>
-    <t>Фінансовий Партнер</t>
-  </si>
-  <si>
-    <t>financial Partner</t>
   </si>
   <si>
     <t>Unex</t>
@@ -699,7 +705,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt formatCode="GENERAL" numFmtId="164"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -796,18 +802,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="D24" activeCellId="0" pane="topLeft" sqref="D24"/>
+      <selection activeCell="E2" activeCellId="0" pane="topLeft" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col min="1" max="1" hidden="false" style="0" width="8.60392156862745" collapsed="true"/>
-    <col min="2" max="2" hidden="false" style="0" width="14.4627450980392" collapsed="true"/>
-    <col min="3" max="3" hidden="false" style="0" width="14.7725490196078" collapsed="true"/>
-    <col min="4" max="4" hidden="false" style="0" width="31.3450980392157" collapsed="true"/>
-    <col min="5" max="1025" hidden="false" style="0" width="8.60392156862745" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.521568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.8352941176471"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="31.4745098039216"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.6156862745098"/>
+    <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.63921568627451"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.3" outlineLevel="0" r="1">
@@ -823,6 +830,12 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="2">
       <c r="A2" s="0" t="n">
@@ -832,16 +845,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F2" t="s">
-        <v>125</v>
+        <v>7</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="3">
@@ -852,16 +865,16 @@
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F3" t="s">
-        <v>127</v>
+        <v>11</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>13</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="4">
@@ -872,16 +885,16 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>128</v>
+        <v>15</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="5">
@@ -892,16 +905,16 @@
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>129</v>
+        <v>18</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="6">
@@ -912,16 +925,16 @@
         <v>1</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>130</v>
-      </c>
-      <c r="F6" t="s">
-        <v>131</v>
+        <v>21</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>23</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="7">
@@ -932,16 +945,16 @@
         <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>132</v>
-      </c>
-      <c r="F7" t="s">
-        <v>133</v>
+        <v>25</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="8">
@@ -952,16 +965,16 @@
         <v>1</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" t="s">
-        <v>134</v>
-      </c>
-      <c r="F8" t="s">
-        <v>135</v>
+        <v>29</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="9">
@@ -972,16 +985,16 @@
         <v>1</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>136</v>
-      </c>
-      <c r="F9" t="s">
-        <v>137</v>
+        <v>33</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>35</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="10">
@@ -992,16 +1005,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" t="s">
-        <v>138</v>
+        <v>37</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="11">
@@ -1012,16 +1025,16 @@
         <v>1</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" t="s">
-        <v>139</v>
+        <v>40</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="12">
@@ -1032,16 +1045,16 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" t="s">
-        <v>140</v>
-      </c>
-      <c r="F12" t="s">
-        <v>141</v>
+        <v>43</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="13">
@@ -1052,16 +1065,16 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" t="s">
-        <v>142</v>
+        <v>47</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="14">
@@ -1072,16 +1085,16 @@
         <v>1</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" t="s">
-        <v>143</v>
-      </c>
-      <c r="F14" t="s">
-        <v>144</v>
+        <v>50</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>52</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="15">
@@ -1092,16 +1105,16 @@
         <v>1</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" t="s">
-        <v>145</v>
+        <v>54</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>55</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="16">
@@ -1112,16 +1125,16 @@
         <v>1</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" t="s">
-        <v>146</v>
-      </c>
-      <c r="F16" t="s">
-        <v>147</v>
+        <v>57</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>59</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="17">
@@ -1132,16 +1145,16 @@
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" t="s">
-        <v>148</v>
-      </c>
-      <c r="F17" t="s">
-        <v>149</v>
+        <v>61</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="18">
@@ -1152,16 +1165,16 @@
         <v>1</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" t="s">
-        <v>150</v>
-      </c>
-      <c r="F18" t="s">
-        <v>151</v>
+        <v>65</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="19">
@@ -1172,16 +1185,16 @@
         <v>1</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="E19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" t="s">
-        <v>152</v>
+        <v>69</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>70</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="20">
@@ -1192,16 +1205,16 @@
         <v>1</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" t="s">
-        <v>153</v>
-      </c>
-      <c r="F20" t="s">
-        <v>154</v>
+        <v>72</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="21">
@@ -1212,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E21" t="s">
-        <v>155</v>
-      </c>
-      <c r="F21" t="s">
-        <v>156</v>
+        <v>76</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="22">
@@ -1232,16 +1245,16 @@
         <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" t="s">
-        <v>157</v>
-      </c>
-      <c r="F22" t="s">
-        <v>158</v>
+        <v>80</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>82</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="23">
@@ -1252,16 +1265,16 @@
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E23" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" t="s">
-        <v>159</v>
+        <v>84</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>85</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="24">
@@ -1272,16 +1285,16 @@
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="E24" t="s">
-        <v>160</v>
-      </c>
-      <c r="F24" t="s">
-        <v>161</v>
+        <v>87</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>89</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="25">
@@ -1292,16 +1305,16 @@
         <v>1</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" t="s">
-        <v>162</v>
-      </c>
-      <c r="F25" t="s">
-        <v>163</v>
+        <v>91</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>93</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="26">
@@ -1312,16 +1325,16 @@
         <v>1</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" t="s">
-        <v>164</v>
-      </c>
-      <c r="F26" t="s">
-        <v>165</v>
+        <v>95</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>97</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="27">
@@ -1332,16 +1345,16 @@
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" t="s">
-        <v>166</v>
-      </c>
-      <c r="F27" t="s">
-        <v>167</v>
+        <v>99</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>101</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="28">
@@ -1352,16 +1365,16 @@
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" t="s">
-        <v>168</v>
+        <v>103</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>104</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="29">
@@ -1372,16 +1385,16 @@
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" t="s">
-        <v>59</v>
-      </c>
-      <c r="F29" t="s">
-        <v>169</v>
+        <v>106</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>107</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="30">
@@ -1392,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30" t="s">
-        <v>61</v>
-      </c>
-      <c r="F30" t="s">
-        <v>170</v>
+        <v>109</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>110</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="31">
@@ -1412,16 +1425,16 @@
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" t="s">
-        <v>171</v>
-      </c>
-      <c r="F31" t="s">
-        <v>172</v>
+        <v>112</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>114</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="32">
@@ -1432,16 +1445,16 @@
         <v>1</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="E32" t="s">
-        <v>173</v>
-      </c>
-      <c r="F32" t="s">
-        <v>174</v>
+        <v>116</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>118</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="33">
@@ -1452,16 +1465,16 @@
         <v>2</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>66</v>
+        <v>119</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33" t="s">
-        <v>175</v>
-      </c>
-      <c r="F33" t="s">
-        <v>176</v>
+        <v>120</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>122</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="34">
@@ -1472,16 +1485,16 @@
         <v>2</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>68</v>
+        <v>123</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" t="s">
-        <v>177</v>
-      </c>
-      <c r="F34" t="s">
-        <v>178</v>
+        <v>124</v>
+      </c>
+      <c r="E34" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="F34" s="0" t="s">
+        <v>126</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="35">
@@ -1492,16 +1505,16 @@
         <v>2</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35" t="s">
-        <v>71</v>
-      </c>
-      <c r="F35" t="s">
-        <v>179</v>
+        <v>128</v>
+      </c>
+      <c r="E35" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="F35" s="0" t="s">
+        <v>129</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="36">
@@ -1512,16 +1525,16 @@
         <v>2</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="E36" t="s">
-        <v>73</v>
-      </c>
-      <c r="F36" t="s">
-        <v>180</v>
+        <v>131</v>
+      </c>
+      <c r="E36" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" s="0" t="s">
+        <v>132</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="37">
@@ -1532,16 +1545,16 @@
         <v>2</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="E37" t="s">
-        <v>75</v>
-      </c>
-      <c r="F37" t="s">
-        <v>181</v>
+        <v>134</v>
+      </c>
+      <c r="E37" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="F37" s="0" t="s">
+        <v>135</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="38">
@@ -1552,16 +1565,16 @@
         <v>2</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="E38" t="s">
-        <v>77</v>
-      </c>
-      <c r="F38" t="s">
-        <v>182</v>
+        <v>137</v>
+      </c>
+      <c r="E38" s="0" t="s">
+        <v>137</v>
+      </c>
+      <c r="F38" s="0" t="s">
+        <v>138</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="39">
@@ -1572,16 +1585,16 @@
         <v>2</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="E39" t="s">
-        <v>183</v>
-      </c>
-      <c r="F39" t="s">
-        <v>184</v>
+        <v>140</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>141</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>142</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="40">
@@ -1592,16 +1605,16 @@
         <v>2</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>80</v>
+        <v>143</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="E40" t="s">
-        <v>185</v>
-      </c>
-      <c r="F40" t="s">
-        <v>186</v>
+        <v>144</v>
+      </c>
+      <c r="E40" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="F40" s="0" t="s">
+        <v>146</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="41">
@@ -1612,16 +1625,16 @@
         <v>2</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="E41" t="s">
-        <v>187</v>
-      </c>
-      <c r="F41" t="s">
-        <v>188</v>
+        <v>148</v>
+      </c>
+      <c r="E41" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="F41" s="0" t="s">
+        <v>150</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="42">
@@ -1632,16 +1645,16 @@
         <v>2</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="E42" t="s">
-        <v>189</v>
-      </c>
-      <c r="F42" t="s">
-        <v>190</v>
+        <v>152</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="F42" s="0" t="s">
+        <v>154</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="43">
@@ -1652,16 +1665,16 @@
         <v>2</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>86</v>
+        <v>155</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="E43" t="s">
-        <v>191</v>
-      </c>
-      <c r="F43" t="s">
-        <v>192</v>
+        <v>156</v>
+      </c>
+      <c r="E43" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="F43" s="0" t="s">
+        <v>158</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="44">
@@ -1672,16 +1685,16 @@
         <v>2</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>88</v>
+        <v>159</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="E44" t="s">
-        <v>193</v>
-      </c>
-      <c r="F44" t="s">
-        <v>194</v>
+        <v>160</v>
+      </c>
+      <c r="E44" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="F44" s="0" t="s">
+        <v>162</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="45">
@@ -1692,16 +1705,16 @@
         <v>2</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>90</v>
+        <v>163</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="E45" t="s">
-        <v>195</v>
-      </c>
-      <c r="F45" t="s">
-        <v>196</v>
+        <v>164</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="F45" s="0" t="s">
+        <v>166</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="46">
@@ -1712,16 +1725,16 @@
         <v>2</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>92</v>
+        <v>167</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="E46" t="s">
-        <v>197</v>
-      </c>
-      <c r="F46" t="s">
-        <v>198</v>
+        <v>168</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="F46" s="0" t="s">
+        <v>170</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="47">
@@ -1732,16 +1745,16 @@
         <v>2</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>94</v>
+        <v>171</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="E47" t="s">
-        <v>199</v>
-      </c>
-      <c r="F47" t="s">
-        <v>200</v>
+        <v>172</v>
+      </c>
+      <c r="E47" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="F47" s="0" t="s">
+        <v>174</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="48">
@@ -1752,16 +1765,16 @@
         <v>2</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>96</v>
+        <v>175</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="E48" t="s">
-        <v>201</v>
-      </c>
-      <c r="F48" t="s">
-        <v>202</v>
+        <v>176</v>
+      </c>
+      <c r="E48" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="F48" s="0" t="s">
+        <v>178</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="49">
@@ -1772,16 +1785,16 @@
         <v>2</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>98</v>
+        <v>179</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="E49" t="s">
-        <v>203</v>
-      </c>
-      <c r="F49" t="s">
-        <v>204</v>
+        <v>180</v>
+      </c>
+      <c r="E49" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="F49" s="0" t="s">
+        <v>182</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="50">
@@ -1792,16 +1805,16 @@
         <v>2</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>100</v>
+        <v>183</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="E50" t="s">
-        <v>205</v>
-      </c>
-      <c r="F50" t="s">
-        <v>206</v>
+        <v>184</v>
+      </c>
+      <c r="E50" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="F50" s="0" t="s">
+        <v>186</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="51">
@@ -1812,16 +1825,16 @@
         <v>2</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>102</v>
+        <v>187</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="E51" t="s">
-        <v>207</v>
-      </c>
-      <c r="F51" t="s">
-        <v>208</v>
+        <v>188</v>
+      </c>
+      <c r="E51" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="F51" s="0" t="s">
+        <v>190</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="52">
@@ -1832,16 +1845,16 @@
         <v>2</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>104</v>
+        <v>191</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="E52" t="s">
-        <v>209</v>
-      </c>
-      <c r="F52" t="s">
-        <v>210</v>
+        <v>192</v>
+      </c>
+      <c r="E52" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="F52" s="0" t="s">
+        <v>194</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="53">
@@ -1852,16 +1865,16 @@
         <v>2</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>106</v>
+        <v>195</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="E53" t="s">
-        <v>211</v>
-      </c>
-      <c r="F53" t="s">
-        <v>212</v>
+        <v>196</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="F53" s="0" t="s">
+        <v>198</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="54">
@@ -1872,16 +1885,16 @@
         <v>2</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>108</v>
+        <v>199</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="E54" t="s">
-        <v>109</v>
-      </c>
-      <c r="F54" t="s">
-        <v>213</v>
+        <v>200</v>
+      </c>
+      <c r="E54" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="F54" s="0" t="s">
+        <v>201</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="55">
@@ -1892,16 +1905,16 @@
         <v>2</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>110</v>
+        <v>202</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="E55" t="s">
-        <v>214</v>
-      </c>
-      <c r="F55" t="s">
-        <v>215</v>
+        <v>203</v>
+      </c>
+      <c r="E55" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="F55" s="0" t="s">
+        <v>205</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="56">
@@ -1912,16 +1925,16 @@
         <v>2</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>112</v>
+        <v>206</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="E56" t="s">
-        <v>216</v>
-      </c>
-      <c r="F56" t="s">
-        <v>217</v>
+        <v>207</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="F56" s="0" t="s">
+        <v>209</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="57">
@@ -1932,16 +1945,16 @@
         <v>2</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>114</v>
+        <v>210</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="E57" t="s">
-        <v>115</v>
-      </c>
-      <c r="F57" t="s">
-        <v>218</v>
+        <v>211</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="F57" s="0" t="s">
+        <v>212</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="58">
@@ -1952,16 +1965,16 @@
         <v>2</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>116</v>
+        <v>213</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="E58" t="s">
-        <v>117</v>
-      </c>
-      <c r="F58" t="s">
-        <v>219</v>
+        <v>214</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="F58" s="0" t="s">
+        <v>215</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="59">
@@ -1972,16 +1985,16 @@
         <v>2</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>118</v>
+        <v>216</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="E59" t="s">
-        <v>220</v>
-      </c>
-      <c r="F59" t="s">
-        <v>221</v>
+        <v>217</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="F59" s="0" t="s">
+        <v>219</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.8" outlineLevel="0" r="60">
@@ -1992,15 +2005,15 @@
         <v>2</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="E60" t="s">
+        <v>221</v>
+      </c>
+      <c r="E60" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="0" t="s">
         <v>223</v>
       </c>
     </row>
@@ -2012,16 +2025,16 @@
         <v>2</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>122</v>
+        <v>224</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="E61" t="s">
-        <v>123</v>
-      </c>
-      <c r="F61" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="E61" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="F61" s="0" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -2047,7 +2060,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col min="1" max="1025" hidden="false" style="0" width="8.60392156862745" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.63921568627451"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -2072,7 +2085,7 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col min="1" max="1025" hidden="false" style="0" width="8.60392156862745" collapsed="true"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.63921568627451"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
